--- a/examples/familiestopersons/BenchmarxFamiliesToPersons/results/Sheet.xlsx
+++ b/examples/familiestopersons/BenchmarxFamiliesToPersons/results/Sheet.xlsx
@@ -165,8 +165,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -370,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -402,6 +418,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -685,7 +706,7 @@
   <dimension ref="B3:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,10 +744,10 @@
       <c r="R3" s="17"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
@@ -891,10 +912,10 @@
       <c r="R11" s="17"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="12"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -912,7 +933,7 @@
       <c r="R12" s="17"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="11"/>
@@ -956,7 +977,7 @@
       <c r="R14" s="17"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="11"/>
@@ -1021,7 +1042,7 @@
       <c r="R17" s="17"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="11"/>
@@ -1086,7 +1107,7 @@
       <c r="R20" s="17"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="35" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="11"/>
@@ -1170,7 +1191,7 @@
       <c r="R24" s="17"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="8"/>
@@ -1378,7 +1399,7 @@
       <c r="R34" s="17"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="11"/>
